--- a/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_159__Reeval_Sobol_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_159__Reeval_Sobol_Modell_1.1.xlsx
@@ -6118,40 +6118,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="103"/>
                 <c:pt idx="0">
-                  <c:v>-1.858137965202332</c:v>
+                  <c:v>-1.858139157295227</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.303841114044189</c:v>
+                  <c:v>5.303845882415771</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.301379203796387</c:v>
+                  <c:v>8.301372528076172</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.1739501953125</c:v>
+                  <c:v>10.17394924163818</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>44.11115646362305</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.220682501792908</c:v>
+                  <c:v>-1.220677852630615</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>51.42532348632812</c:v>
+                  <c:v>51.42532730102539</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>45.5472412109375</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>49.16311645507812</c:v>
+                  <c:v>49.16312026977539</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>45.1761360168457</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.05635995045304298</c:v>
+                  <c:v>0.05636565014719963</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.931608200073242</c:v>
+                  <c:v>8.931609153747559</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>37.3836669921875</c:v>
@@ -6160,13 +6160,13 @@
                   <c:v>45.63702774047852</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42.06482315063477</c:v>
+                  <c:v>42.06483459472656</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>46.66828155517578</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>50.73990631103516</c:v>
+                  <c:v>50.73991394042969</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>37.22237014770508</c:v>
@@ -6181,52 +6181,52 @@
                   <c:v>44.20791625976562</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44.89981460571289</c:v>
+                  <c:v>44.89981079101562</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.964304506778717</c:v>
+                  <c:v>-0.9643033742904663</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>39.60311508178711</c:v>
+                  <c:v>39.60311889648438</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45.89276885986328</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.04803759977221489</c:v>
+                  <c:v>0.04803645983338356</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-3.564965724945068</c:v>
+                  <c:v>-3.564962387084961</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.210444301366806</c:v>
+                  <c:v>-0.2104397416114807</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>52.74361038208008</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>49.30652236938477</c:v>
+                  <c:v>49.30652618408203</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>47.86096954345703</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-1.166917681694031</c:v>
+                  <c:v>-1.166919946670532</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>28.93807411193848</c:v>
+                  <c:v>28.93807792663574</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-2.636175394058228</c:v>
+                  <c:v>-2.636181116104126</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6.048843860626221</c:v>
+                  <c:v>6.048846244812012</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.06242835521698</c:v>
+                  <c:v>1.062426090240479</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.2943778932094574</c:v>
+                  <c:v>0.2943801581859589</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-0.7153792977333069</c:v>
@@ -6235,76 +6235,76 @@
                   <c:v>49.86946487426758</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>46.0460090637207</c:v>
+                  <c:v>46.04600143432617</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-0.17562535405159</c:v>
+                  <c:v>-0.1756242215633392</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.01645892858505249</c:v>
+                  <c:v>0.01646006852388382</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>49.6259880065918</c:v>
+                  <c:v>49.62599563598633</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>45.63672637939453</c:v>
+                  <c:v>45.6367301940918</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45.49079513549805</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.026923179626465</c:v>
+                  <c:v>2.02692437171936</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>42.16436004638672</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>45.60619354248047</c:v>
+                  <c:v>45.6061897277832</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>10.16881465911865</c:v>
+                  <c:v>10.16881942749023</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>47.37852478027344</c:v>
+                  <c:v>47.3785285949707</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4.01976203918457</c:v>
+                  <c:v>4.019760608673096</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>43.27685546875</c:v>
+                  <c:v>43.27686309814453</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.008150219917297</c:v>
+                  <c:v>1.008153557777405</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>43.00961303710938</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>43.66484832763672</c:v>
+                  <c:v>43.66484451293945</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>43.95611953735352</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>39.3451042175293</c:v>
+                  <c:v>39.34510803222656</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>-3.203621625900269</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>46.06389617919922</c:v>
+                  <c:v>46.06389999389648</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>39.43467712402344</c:v>
+                  <c:v>39.43467330932617</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>45.78213882446289</c:v>
+                  <c:v>45.78214263916016</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>43.42071533203125</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.469796299934387</c:v>
+                  <c:v>1.46980082988739</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>47.36870956420898</c:v>
@@ -6316,70 +6316,70 @@
                   <c:v>-0.8054868578910828</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.391342043876648</c:v>
+                  <c:v>1.391344308853149</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.377334117889404</c:v>
+                  <c:v>1.377329468727112</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>48.81114959716797</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-2.257928848266602</c:v>
+                  <c:v>-2.257931232452393</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>13.29087066650391</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.12542200088501</c:v>
+                  <c:v>2.125417470932007</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>40.24712753295898</c:v>
+                  <c:v>40.24713134765625</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>45.85300827026367</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.061703562736511</c:v>
+                  <c:v>1.061706900596619</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-3.553097724914551</c:v>
+                  <c:v>-3.553100109100342</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45.26981353759766</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.085707545280457</c:v>
+                  <c:v>1.085705280303955</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>43.58574295043945</c:v>
+                  <c:v>43.58575439453125</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>5.499716758728027</c:v>
+                  <c:v>5.499721527099609</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>51.47309494018555</c:v>
+                  <c:v>51.47309875488281</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2.669292211532593</c:v>
+                  <c:v>2.669297456741333</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-2.622018814086914</c:v>
+                  <c:v>-2.622021198272705</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-1.022206544876099</c:v>
+                  <c:v>-1.022204279899597</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>45.27002334594727</c:v>
+                  <c:v>45.27002716064453</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>40.04516220092773</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>42.34944152832031</c:v>
+                  <c:v>42.34943389892578</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-3.695711851119995</c:v>
+                  <c:v>-3.695709466934204</c:v>
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>42.68624877929688</c:v>
@@ -6388,22 +6388,22 @@
                   <c:v>23.4395580291748</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.413995981216431</c:v>
+                  <c:v>1.413998246192932</c:v>
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>46.44808578491211</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>47.08780670166016</c:v>
+                  <c:v>47.08781051635742</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>22.86568641662598</c:v>
+                  <c:v>22.86568450927734</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.334537506103516</c:v>
+                  <c:v>1.334543228149414</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-2.492536783218384</c:v>
+                  <c:v>-2.492533445358276</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>27.67678260803223</c:v>
@@ -6415,16 +6415,16 @@
                   <c:v>47.1299934387207</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>38.31524658203125</c:v>
+                  <c:v>38.31525421142578</c:v>
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>46.12837219238281</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>53.34574508666992</c:v>
+                  <c:v>53.34574890136719</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>-2.925789356231689</c:v>
+                  <c:v>-2.925791501998901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7119,7 +7119,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>-1.858137965202332</v>
+        <v>-1.858139157295227</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -7151,7 +7151,7 @@
         <v>34.7122</v>
       </c>
       <c r="F3">
-        <v>5.303841114044189</v>
+        <v>5.303845882415771</v>
       </c>
       <c r="G3">
         <v>77</v>
@@ -7183,7 +7183,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>8.301379203796387</v>
+        <v>8.301372528076172</v>
       </c>
       <c r="G4">
         <v>77</v>
@@ -7215,7 +7215,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>10.1739501953125</v>
+        <v>10.17394924163818</v>
       </c>
       <c r="G5">
         <v>77</v>
@@ -7279,7 +7279,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>-1.220682501792908</v>
+        <v>-1.220677852630615</v>
       </c>
       <c r="G7">
         <v>77</v>
@@ -7311,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>51.42532348632812</v>
+        <v>51.42532730102539</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7351,7 +7351,7 @@
         <v>49.6799</v>
       </c>
       <c r="F10">
-        <v>49.16311645507812</v>
+        <v>49.16312026977539</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.05635995045304298</v>
+        <v>0.05636565014719963</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7411,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>8.931608200073242</v>
+        <v>8.931609153747559</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7471,7 +7471,7 @@
         <v>26.5051</v>
       </c>
       <c r="F16">
-        <v>42.06482315063477</v>
+        <v>42.06483459472656</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>51.4673</v>
       </c>
       <c r="F18">
-        <v>50.73990631103516</v>
+        <v>50.73991394042969</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>50.398</v>
       </c>
       <c r="F23">
-        <v>44.89981460571289</v>
+        <v>44.89981079101562</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>-0.964304506778717</v>
+        <v>-0.9643033742904663</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>45.2847</v>
       </c>
       <c r="F25">
-        <v>39.60311508178711</v>
+        <v>39.60311889648438</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0.04803759977221489</v>
+        <v>0.04803645983338356</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>-3.564965724945068</v>
+        <v>-3.564962387084961</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>-0.210444301366806</v>
+        <v>-0.2104397416114807</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>51.9912</v>
       </c>
       <c r="F31">
-        <v>49.30652236938477</v>
+        <v>49.30652618408203</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>-1.166917681694031</v>
+        <v>-1.166919946670532</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>28.93807411193848</v>
+        <v>28.93807792663574</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>-2.636175394058228</v>
+        <v>-2.636181116104126</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>6.048843860626221</v>
+        <v>6.048846244812012</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.06242835521698</v>
+        <v>1.062426090240479</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>0.2943778932094574</v>
+        <v>0.2943801581859589</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>45.4106</v>
       </c>
       <c r="F41">
-        <v>46.0460090637207</v>
+        <v>46.04600143432617</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>-0.17562535405159</v>
+        <v>-0.1756242215633392</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>0.01645892858505249</v>
+        <v>0.01646006852388382</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>49.6259880065918</v>
+        <v>49.62599563598633</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>61.4498</v>
       </c>
       <c r="F45">
-        <v>45.63672637939453</v>
+        <v>45.6367301940918</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>2.026923179626465</v>
+        <v>2.02692437171936</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>32.9114</v>
       </c>
       <c r="F49">
-        <v>45.60619354248047</v>
+        <v>45.6061897277832</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>10.16881465911865</v>
+        <v>10.16881942749023</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>46.8488</v>
       </c>
       <c r="F51">
-        <v>47.37852478027344</v>
+        <v>47.3785285949707</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>4.01976203918457</v>
+        <v>4.019760608673096</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>34.2886</v>
       </c>
       <c r="F53">
-        <v>43.27685546875</v>
+        <v>43.27686309814453</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.008150219917297</v>
+        <v>1.008153557777405</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>48.7071</v>
       </c>
       <c r="F56">
-        <v>43.66484832763672</v>
+        <v>43.66484451293945</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>39.3451042175293</v>
+        <v>39.34510803222656</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>52.8419</v>
       </c>
       <c r="F60">
-        <v>46.06389617919922</v>
+        <v>46.06389999389648</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>35.7539</v>
       </c>
       <c r="F61">
-        <v>39.43467712402344</v>
+        <v>39.43467330932617</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>45.78213882446289</v>
+        <v>45.78214263916016</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8431,7 +8431,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.469796299934387</v>
+        <v>1.46980082988739</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.391342043876648</v>
+        <v>1.391344308853149</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.377334117889404</v>
+        <v>1.377329468727112</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>-2.257928848266602</v>
+        <v>-2.257931232452393</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>2.12542200088501</v>
+        <v>2.125417470932007</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>47.053</v>
       </c>
       <c r="F74">
-        <v>40.24712753295898</v>
+        <v>40.24713134765625</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8671,7 +8671,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.061703562736511</v>
+        <v>1.061706900596619</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>-3.553097724914551</v>
+        <v>-3.553100109100342</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.085707545280457</v>
+        <v>1.085705280303955</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>45.928</v>
       </c>
       <c r="F80">
-        <v>43.58574295043945</v>
+        <v>43.58575439453125</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>5.499716758728027</v>
+        <v>5.499721527099609</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>40.8214</v>
       </c>
       <c r="F82">
-        <v>51.47309494018555</v>
+        <v>51.47309875488281</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>2.669292211532593</v>
+        <v>2.669297456741333</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>-2.622018814086914</v>
+        <v>-2.622021198272705</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>-1.022206544876099</v>
+        <v>-1.022204279899597</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>45.8522</v>
       </c>
       <c r="F86">
-        <v>45.27002334594727</v>
+        <v>45.27002716064453</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8911,7 +8911,7 @@
         <v>47.2348</v>
       </c>
       <c r="F88">
-        <v>42.34944152832031</v>
+        <v>42.34943389892578</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8931,7 +8931,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>-3.695711851119995</v>
+        <v>-3.695709466934204</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8991,7 +8991,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.413995981216431</v>
+        <v>1.413998246192932</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -9031,7 +9031,7 @@
         <v>51.117</v>
       </c>
       <c r="F94">
-        <v>47.08780670166016</v>
+        <v>47.08781051635742</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -9051,7 +9051,7 @@
         <v>43.387</v>
       </c>
       <c r="F95">
-        <v>22.86568641662598</v>
+        <v>22.86568450927734</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -9071,7 +9071,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.334537506103516</v>
+        <v>1.334543228149414</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -9091,7 +9091,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>-2.492536783218384</v>
+        <v>-2.492533445358276</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -9171,7 +9171,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>38.31524658203125</v>
+        <v>38.31525421142578</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -9211,7 +9211,7 @@
         <v>58.1678</v>
       </c>
       <c r="F103">
-        <v>53.34574508666992</v>
+        <v>53.34574890136719</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -9231,7 +9231,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>-2.925789356231689</v>
+        <v>-2.925791501998901</v>
       </c>
     </row>
     <row r="105" spans="1:6">
